--- a/02_data/stock_almacen.xlsx
+++ b/02_data/stock_almacen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\not_opticliente\02_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54009FB-A658-4C53-B2CC-2BBB7A3B03CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D140D60C-4B74-43DC-8138-E94323C17807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5184" yWindow="312" windowWidth="17280" windowHeight="8964" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prioridades" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5363,7 +5363,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2:C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="73">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5404,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="73">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5415,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="73">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5426,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="73">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5437,7 +5437,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="73">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5448,7 +5448,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5459,7 +5459,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="73">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5470,7 +5470,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="73">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5481,7 +5481,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="73">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5492,7 +5492,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="73">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5503,7 +5503,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5514,7 +5514,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="73">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5525,7 +5525,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="73">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="73">
-        <v>370</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="73">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5558,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="73">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5569,7 +5569,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="73">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5580,7 +5580,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="73">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5591,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="73">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5602,7 +5602,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="73">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="73">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5624,7 +5624,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="73">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5635,7 +5635,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="73">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5646,7 +5646,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="73">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5657,7 +5657,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="73">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5668,7 +5668,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="73">
-        <v>454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="73">
-        <v>166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5690,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="73">
-        <v>50.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5701,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="73">
-        <v>36.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5712,7 +5712,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="73">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5723,7 +5723,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="73">
-        <v>65.199999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5734,7 +5734,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="73">
-        <v>166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5745,7 +5745,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="73">
-        <v>50.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5756,7 +5756,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="73">
-        <v>36.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="73">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5778,7 +5778,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="73">
-        <v>65.199999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5789,7 +5789,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="73">
-        <v>79.599999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5800,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="73">
-        <v>554.79999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5811,7 +5811,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="73">
-        <v>209.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5822,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="73">
-        <v>70.959999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5833,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="73">
-        <v>53.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5844,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="73">
-        <v>36.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5855,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="73">
-        <v>88.239999999999981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5866,7 +5866,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="73">
-        <v>209.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5877,7 +5877,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="73">
-        <v>70.959999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5888,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="73">
-        <v>53.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5899,7 +5899,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="73">
-        <v>36.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5910,7 +5910,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="73">
-        <v>88.239999999999981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="73">
-        <v>105.52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5932,7 +5932,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="73">
-        <v>675.75999999999988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5943,7 +5943,7 @@
         <v>12</v>
       </c>
       <c r="C52" s="73">
-        <v>261.03999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5954,7 +5954,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="73">
-        <v>95.151999999999987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="73">
-        <v>74.415999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5976,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="73">
-        <v>53.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5987,7 +5987,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="73">
-        <v>115.88799999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="73">
-        <v>261.03999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6009,7 +6009,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="73">
-        <v>95.151999999999987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6020,7 +6020,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="73">
-        <v>74.415999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6031,7 +6031,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="73">
-        <v>53.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6042,7 +6042,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="73">
-        <v>115.88799999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6053,7 +6053,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="73">
-        <v>136.624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="73">
-        <v>820.91199999999981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6075,7 +6075,7 @@
         <v>11</v>
       </c>
       <c r="C64" s="73">
-        <v>323.24799999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6086,7 +6086,7 @@
         <v>12</v>
       </c>
       <c r="C65" s="73">
-        <v>124.18239999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6097,7 +6097,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="73">
-        <v>99.299199999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="73">
-        <v>74.415999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6119,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="73">
-        <v>149.06559999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6130,7 +6130,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="73">
-        <v>323.24799999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6141,7 +6141,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="73">
-        <v>124.18239999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6152,7 +6152,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="73">
-        <v>99.299199999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6163,7 +6163,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="73">
-        <v>74.415999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6174,7 +6174,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="73">
-        <v>149.06559999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6185,7 +6185,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="73">
-        <v>173.94879999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6196,7 +6196,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="73">
-        <v>995.09439999999972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6207,7 +6207,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="73">
-        <v>397.8975999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6218,7 +6218,7 @@
         <v>11</v>
       </c>
       <c r="C77" s="73">
-        <v>159.01887999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="73">
-        <v>129.15904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6240,7 +6240,7 @@
         <v>13</v>
       </c>
       <c r="C79" s="73">
-        <v>99.299199999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="73">
-        <v>188.87871999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6262,7 +6262,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="73">
-        <v>397.8975999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6273,7 +6273,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="73">
-        <v>159.01887999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6284,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="73">
-        <v>129.15904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6295,7 +6295,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="73">
-        <v>99.299199999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="73">
-        <v>188.87871999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="73">
-        <v>218.73855999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6328,7 +6328,7 @@
         <v>8</v>
       </c>
       <c r="C87" s="73">
-        <v>1204.1132799999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6339,7 +6339,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="73">
-        <v>487.47711999999984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6350,7 +6350,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="73">
-        <v>200.82265599999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6361,7 +6361,7 @@
         <v>11</v>
       </c>
       <c r="C90" s="73">
-        <v>164.990848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6372,7 +6372,7 @@
         <v>12</v>
       </c>
       <c r="C91" s="73">
-        <v>129.15904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6383,7 +6383,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="73">
-        <v>236.65446399999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="73">
-        <v>487.47711999999984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="73">
-        <v>200.82265599999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6416,7 +6416,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="73">
-        <v>164.990848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6427,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="73">
-        <v>129.15904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6438,7 +6438,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="73">
-        <v>236.65446399999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6449,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="C98" s="73">
-        <v>272.48627199999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6460,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="C99" s="73">
-        <v>1454.9359359999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6471,7 +6471,7 @@
         <v>8</v>
       </c>
       <c r="C100" s="73">
-        <v>594.97254399999974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6482,7 +6482,7 @@
         <v>9</v>
       </c>
       <c r="C101" s="73">
-        <v>250.98718719999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6493,7 +6493,7 @@
         <v>10</v>
       </c>
       <c r="C102" s="73">
-        <v>207.98901759999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6504,7 +6504,7 @@
         <v>11</v>
       </c>
       <c r="C103" s="73">
-        <v>164.990848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6515,7 +6515,7 @@
         <v>12</v>
       </c>
       <c r="C104" s="73">
-        <v>293.98535679999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6526,7 +6526,7 @@
         <v>13</v>
       </c>
       <c r="C105" s="73">
-        <v>594.97254399999974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="73">
-        <v>250.98718719999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6548,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="C107" s="73">
-        <v>207.98901759999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6559,7 +6559,7 @@
         <v>3</v>
       </c>
       <c r="C108" s="73">
-        <v>164.990848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6570,7 +6570,7 @@
         <v>4</v>
       </c>
       <c r="C109" s="73">
-        <v>293.98535679999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="73">
-        <v>336.98352639999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6592,7 +6592,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="73">
-        <v>1755.9231231999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6603,7 +6603,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="73">
-        <v>723.96705279999969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6614,7 +6614,7 @@
         <v>8</v>
       </c>
       <c r="C113" s="73">
-        <v>311.18462463999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6625,7 +6625,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="73">
-        <v>259.58682111999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6636,7 +6636,7 @@
         <v>10</v>
       </c>
       <c r="C115" s="73">
-        <v>207.98901759999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6647,7 +6647,7 @@
         <v>11</v>
       </c>
       <c r="C116" s="73">
-        <v>362.78242815999988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6658,7 +6658,7 @@
         <v>12</v>
       </c>
       <c r="C117" s="73">
-        <v>723.96705279999969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6669,7 +6669,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="73">
-        <v>311.18462463999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="73">
-        <v>259.58682111999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6691,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="C120" s="73">
-        <v>207.98901759999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6702,7 +6702,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="73">
-        <v>362.78242815999988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6713,7 +6713,7 @@
         <v>4</v>
       </c>
       <c r="C122" s="73">
-        <v>414.38023167999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6724,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="73">
-        <v>2117.1077478399989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6735,7 +6735,7 @@
         <v>6</v>
       </c>
       <c r="C124" s="73">
-        <v>878.76046335999956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6746,7 +6746,7 @@
         <v>7</v>
       </c>
       <c r="C125" s="73">
-        <v>383.42154956799988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6757,7 +6757,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="73">
-        <v>321.50418534399995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6768,7 +6768,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="73">
-        <v>259.58682111999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6779,7 +6779,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="73">
-        <v>445.33891379199986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6790,7 +6790,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="73">
-        <v>878.76046335999956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6801,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="C130" s="73">
-        <v>383.42154956799988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6812,7 +6812,7 @@
         <v>13</v>
       </c>
       <c r="C131" s="73">
-        <v>321.50418534399995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="73">
-        <v>259.58682111999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6834,7 +6834,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="73">
-        <v>445.33891379199986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="C134" s="73">
-        <v>507.2562780159999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6856,7 +6856,7 @@
         <v>4</v>
       </c>
       <c r="C135" s="73">
-        <v>2550.5292974079985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6867,7 +6867,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="73">
-        <v>1064.5125560319993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6878,7 +6878,7 @@
         <v>6</v>
       </c>
       <c r="C137" s="73">
-        <v>470.10585948159985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6889,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="C138" s="73">
-        <v>395.80502241279993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6900,7 +6900,7 @@
         <v>8</v>
       </c>
       <c r="C139" s="73">
-        <v>321.50418534399995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6911,7 +6911,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="73">
-        <v>544.40669655039983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6922,7 +6922,7 @@
         <v>10</v>
       </c>
       <c r="C141" s="73">
-        <v>1064.5125560319993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6933,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="C142" s="73">
-        <v>470.10585948159985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6944,7 +6944,7 @@
         <v>12</v>
       </c>
       <c r="C143" s="73">
-        <v>395.80502241279993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6955,7 +6955,7 @@
         <v>13</v>
       </c>
       <c r="C144" s="73">
-        <v>321.50418534399995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="73">
-        <v>544.40669655039983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6977,7 +6977,7 @@
         <v>2</v>
       </c>
       <c r="C146" s="73">
-        <v>618.70753361919981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6988,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="73">
-        <v>3070.635156889598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6999,7 +6999,7 @@
         <v>4</v>
       </c>
       <c r="C148" s="73">
-        <v>1287.4150672383992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7010,7 +7010,7 @@
         <v>5</v>
       </c>
       <c r="C149" s="73">
-        <v>574.12703137791982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7021,7 +7021,7 @@
         <v>6</v>
       </c>
       <c r="C150" s="73">
-        <v>484.9660268953599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7032,7 +7032,7 @@
         <v>7</v>
       </c>
       <c r="C151" s="73">
-        <v>395.80502241279993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7043,7 +7043,7 @@
         <v>8</v>
       </c>
       <c r="C152" s="73">
-        <v>663.28803586047979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7054,7 +7054,7 @@
         <v>9</v>
       </c>
       <c r="C153" s="73">
-        <v>1287.4150672383992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7065,7 +7065,7 @@
         <v>10</v>
       </c>
       <c r="C154" s="73">
-        <v>574.12703137791982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>11</v>
       </c>
       <c r="C155" s="73">
-        <v>484.9660268953599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7087,7 +7087,7 @@
         <v>12</v>
       </c>
       <c r="C156" s="73">
-        <v>395.80502241279993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7098,7 +7098,7 @@
         <v>13</v>
       </c>
       <c r="C157" s="73">
-        <v>663.28803586047979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="73">
-        <v>752.44904034303977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7120,7 +7120,7 @@
         <v>2</v>
       </c>
       <c r="C159" s="73">
-        <v>3694.7621882675176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7131,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="73">
-        <v>1554.8980806860789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7142,7 +7142,7 @@
         <v>4</v>
       </c>
       <c r="C161" s="73">
-        <v>698.95243765350381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7153,7 +7153,7 @@
         <v>5</v>
       </c>
       <c r="C162" s="73">
-        <v>591.95923227443188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7164,7 +7164,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="73">
-        <v>484.9660268953599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7175,7 +7175,7 @@
         <v>7</v>
       </c>
       <c r="C164" s="73">
-        <v>805.94564303257573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7186,7 +7186,7 @@
         <v>8</v>
       </c>
       <c r="C165" s="73">
-        <v>1554.8980806860789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
         <v>9</v>
       </c>
       <c r="C166" s="73">
-        <v>698.95243765350381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7208,7 +7208,7 @@
         <v>10</v>
       </c>
       <c r="C167" s="73">
-        <v>591.95923227443188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7219,7 +7219,7 @@
         <v>11</v>
       </c>
       <c r="C168" s="73">
-        <v>484.9660268953599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7230,7 +7230,7 @@
         <v>12</v>
       </c>
       <c r="C169" s="73">
-        <v>805.94564303257573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7241,7 +7241,7 @@
         <v>13</v>
       </c>
       <c r="C170" s="73">
-        <v>912.93884841164765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7252,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="C171" s="73">
-        <v>4443.7146259210213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7263,7 +7263,7 @@
         <v>2</v>
       </c>
       <c r="C172" s="73">
-        <v>1875.8776968232946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7274,7 +7274,7 @@
         <v>3</v>
       </c>
       <c r="C173" s="73">
-        <v>848.74292518420452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7285,7 +7285,7 @@
         <v>4</v>
       </c>
       <c r="C174" s="73">
-        <v>720.35107872931826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7296,7 +7296,7 @@
         <v>5</v>
       </c>
       <c r="C175" s="73">
-        <v>591.95923227443188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7307,7 +7307,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="73">
-        <v>977.13477163909079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7318,7 +7318,7 @@
         <v>7</v>
       </c>
       <c r="C177" s="73">
-        <v>1875.8776968232946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7329,7 +7329,7 @@
         <v>8</v>
       </c>
       <c r="C178" s="73">
-        <v>848.74292518420452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7340,7 +7340,7 @@
         <v>9</v>
       </c>
       <c r="C179" s="73">
-        <v>720.35107872931826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7351,7 +7351,7 @@
         <v>10</v>
       </c>
       <c r="C180" s="73">
-        <v>591.95923227443188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7362,7 +7362,7 @@
         <v>11</v>
       </c>
       <c r="C181" s="73">
-        <v>977.13477163909079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7373,7 +7373,7 @@
         <v>12</v>
       </c>
       <c r="C182" s="73">
-        <v>1105.526618093977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7384,7 +7384,7 @@
         <v>13</v>
       </c>
       <c r="C183" s="73">
-        <v>5342.4575511052253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="C184" s="73">
-        <v>2261.0532361879536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7406,7 +7406,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="73">
-        <v>1028.4915102210452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7417,7 +7417,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="73">
-        <v>874.42129447518187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7428,7 +7428,7 @@
         <v>4</v>
       </c>
       <c r="C187" s="73">
-        <v>720.35107872931826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7439,7 +7439,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="73">
-        <v>1182.5617259669089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7450,7 +7450,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="73">
-        <v>2261.0532361879536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>7</v>
       </c>
       <c r="C190" s="73">
-        <v>1028.4915102210452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7472,7 +7472,7 @@
         <v>8</v>
       </c>
       <c r="C191" s="73">
-        <v>874.42129447518187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7483,7 +7483,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="73">
-        <v>720.35107872931826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7494,7 +7494,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="73">
-        <v>1182.5617259669089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7505,7 +7505,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="73">
-        <v>1336.6319417127725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7516,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="C195" s="73">
-        <v>6420.9490613262706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7527,7 +7527,7 @@
         <v>13</v>
       </c>
       <c r="C196" s="73">
-        <v>2723.2638834255445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="C197" s="73">
-        <v>1244.1898122652542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7549,7 +7549,7 @@
         <v>2</v>
       </c>
       <c r="C198" s="73">
-        <v>1059.3055533702181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7560,7 +7560,7 @@
         <v>3</v>
       </c>
       <c r="C199" s="73">
-        <v>874.42129447518187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7571,7 +7571,7 @@
         <v>4</v>
       </c>
       <c r="C200" s="73">
-        <v>1429.0740711602905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7582,7 +7582,7 @@
         <v>5</v>
       </c>
       <c r="C201" s="73">
-        <v>2723.2638834255445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7593,7 +7593,7 @@
         <v>6</v>
       </c>
       <c r="C202" s="73">
-        <v>1244.1898122652542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7604,7 +7604,7 @@
         <v>7</v>
       </c>
       <c r="C203" s="73">
-        <v>1059.3055533702181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7615,7 +7615,7 @@
         <v>8</v>
       </c>
       <c r="C204" s="73">
-        <v>874.42129447518187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7626,7 +7626,7 @@
         <v>9</v>
       </c>
       <c r="C205" s="73">
-        <v>1429.0740711602905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7637,7 +7637,7 @@
         <v>10</v>
       </c>
       <c r="C206" s="73">
-        <v>1613.958330055327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7648,7 +7648,7 @@
         <v>11</v>
       </c>
       <c r="C207" s="73">
-        <v>7715.1388735915243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7659,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="C208" s="73">
-        <v>3277.9166601106531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7670,7 +7670,7 @@
         <v>13</v>
       </c>
       <c r="C209" s="73">
-        <v>1503.027774718305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7681,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="73">
-        <v>1281.1666640442618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7692,7 +7692,7 @@
         <v>2</v>
       </c>
       <c r="C211" s="73">
-        <v>1059.3055533702181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7703,7 +7703,7 @@
         <v>3</v>
       </c>
       <c r="C212" s="73">
-        <v>1724.8888853923486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7714,7 +7714,7 @@
         <v>4</v>
       </c>
       <c r="C213" s="73">
-        <v>3277.9166601106531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7725,7 +7725,7 @@
         <v>5</v>
       </c>
       <c r="C214" s="73">
-        <v>1503.027774718305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7736,7 +7736,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="73">
-        <v>1281.1666640442618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7747,7 +7747,7 @@
         <v>7</v>
       </c>
       <c r="C216" s="73">
-        <v>1059.3055533702181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7758,7 +7758,7 @@
         <v>8</v>
       </c>
       <c r="C217" s="73">
-        <v>1724.8888853923486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7769,7 +7769,7 @@
         <v>9</v>
       </c>
       <c r="C218" s="73">
-        <v>1946.7499960663922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7780,7 +7780,7 @@
         <v>10</v>
       </c>
       <c r="C219" s="73">
-        <v>9268.1666483098288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7791,7 +7791,7 @@
         <v>11</v>
       </c>
       <c r="C220" s="73">
-        <v>3943.4999921327835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7802,7 +7802,7 @@
         <v>12</v>
       </c>
       <c r="C221" s="73">
-        <v>1813.6333296619659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7813,7 +7813,7 @@
         <v>13</v>
       </c>
       <c r="C222" s="73">
-        <v>1547.3999968531141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7824,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="73">
-        <v>1281.1666640442618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7835,7 +7835,7 @@
         <v>2</v>
       </c>
       <c r="C224" s="73">
-        <v>2079.866662470818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7846,7 +7846,7 @@
         <v>3</v>
       </c>
       <c r="C225" s="73">
-        <v>3943.4999921327835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7857,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="C226" s="73">
-        <v>1813.6333296619659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7868,7 +7868,7 @@
         <v>5</v>
       </c>
       <c r="C227" s="73">
-        <v>1547.3999968531141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7879,7 +7879,7 @@
         <v>6</v>
       </c>
       <c r="C228" s="73">
-        <v>1281.1666640442618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7890,7 +7890,7 @@
         <v>7</v>
       </c>
       <c r="C229" s="73">
-        <v>2079.866662470818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7901,7 +7901,7 @@
         <v>8</v>
       </c>
       <c r="C230" s="73">
-        <v>2346.0999952796706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7912,7 +7912,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="73">
-        <v>11131.799977971794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7923,7 +7923,7 @@
         <v>10</v>
       </c>
       <c r="C232" s="73">
-        <v>4742.1999905593402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7934,7 +7934,7 @@
         <v>11</v>
       </c>
       <c r="C233" s="73">
-        <v>2186.3599955943591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7945,7 +7945,7 @@
         <v>12</v>
       </c>
       <c r="C234" s="73">
-        <v>1866.8799962237367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7956,7 +7956,7 @@
         <v>13</v>
       </c>
       <c r="C235" s="73">
-        <v>1547.3999968531141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7967,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="73">
-        <v>2505.8399949649815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7978,7 +7978,7 @@
         <v>2</v>
       </c>
       <c r="C237" s="73">
-        <v>4742.1999905593402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7989,7 +7989,7 @@
         <v>3</v>
       </c>
       <c r="C238" s="73">
-        <v>2186.3599955943591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8000,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="C239" s="73">
-        <v>1866.8799962237367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8011,7 +8011,7 @@
         <v>5</v>
       </c>
       <c r="C240" s="73">
-        <v>1547.3999968531141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8022,7 +8022,7 @@
         <v>6</v>
       </c>
       <c r="C241" s="73">
-        <v>2505.8399949649815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8033,7 +8033,7 @@
         <v>7</v>
       </c>
       <c r="C242" s="73">
-        <v>2825.3199943356044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8044,7 +8044,7 @@
         <v>8</v>
       </c>
       <c r="C243" s="73">
-        <v>13368.159973566153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8055,7 +8055,7 @@
         <v>9</v>
       </c>
       <c r="C244" s="73">
-        <v>5700.6399886712079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8066,7 +8066,7 @@
         <v>10</v>
       </c>
       <c r="C245" s="73">
-        <v>2633.6319947132311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8077,7 +8077,7 @@
         <v>11</v>
       </c>
       <c r="C246" s="73">
-        <v>2250.2559954684839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8088,7 +8088,7 @@
         <v>12</v>
       </c>
       <c r="C247" s="73">
-        <v>1866.8799962237367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8099,7 +8099,7 @@
         <v>13</v>
       </c>
       <c r="C248" s="73">
-        <v>3017.0079939579778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="73">
-        <v>5700.6399886712079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
         <v>2</v>
       </c>
       <c r="C250" s="73">
-        <v>2633.6319947132311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8132,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="C251" s="73">
-        <v>2250.2559954684839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8143,7 +8143,7 @@
         <v>4</v>
       </c>
       <c r="C252" s="73">
-        <v>1866.8799962237367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>5</v>
       </c>
       <c r="C253" s="73">
-        <v>3017.0079939579778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8165,7 +8165,7 @@
         <v>6</v>
       </c>
       <c r="C254" s="73">
-        <v>3400.3839932027254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8176,7 +8176,7 @@
         <v>7</v>
       </c>
       <c r="C255" s="73">
-        <v>16051.791968279384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8187,7 +8187,7 @@
         <v>8</v>
       </c>
       <c r="C256" s="73">
-        <v>6850.7679864054489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8198,7 +8198,7 @@
         <v>9</v>
       </c>
       <c r="C257" s="73">
-        <v>3170.3583936558771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8209,7 +8209,7 @@
         <v>10</v>
       </c>
       <c r="C258" s="73">
-        <v>2710.3071945621805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8220,7 +8220,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="73">
-        <v>2250.2559954684839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8231,7 +8231,7 @@
         <v>12</v>
       </c>
       <c r="C260" s="73">
-        <v>3630.4095927495732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8242,7 +8242,7 @@
         <v>13</v>
       </c>
       <c r="C261" s="73">
-        <v>6850.7679864054489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="C262" s="73">
-        <v>3170.3583936558771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8264,7 +8264,7 @@
         <v>2</v>
       </c>
       <c r="C263" s="73">
-        <v>2710.3071945621805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8275,7 +8275,7 @@
         <v>3</v>
       </c>
       <c r="C264" s="73">
-        <v>2250.2559954684839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8286,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="C265" s="73">
-        <v>3630.4095927495732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8297,7 +8297,7 @@
         <v>5</v>
       </c>
       <c r="C266" s="73">
-        <v>4090.4607918432703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8308,7 +8308,7 @@
         <v>6</v>
       </c>
       <c r="C267" s="73">
-        <v>19272.150361935259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8319,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="C268" s="73">
-        <v>8230.9215836865387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8330,7 +8330,7 @@
         <v>8</v>
       </c>
       <c r="C269" s="73">
-        <v>3814.4300723870524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8341,7 +8341,7 @@
         <v>9</v>
       </c>
       <c r="C270" s="73">
-        <v>3262.3686334746167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8352,7 +8352,7 @@
         <v>10</v>
       </c>
       <c r="C271" s="73">
-        <v>2710.3071945621805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8363,7 +8363,7 @@
         <v>11</v>
       </c>
       <c r="C272" s="73">
-        <v>4366.4915112994877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8374,7 +8374,7 @@
         <v>12</v>
       </c>
       <c r="C273" s="73">
-        <v>8230.9215836865387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8385,7 +8385,7 @@
         <v>13</v>
       </c>
       <c r="C274" s="73">
-        <v>3814.4300723870524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="C275" s="73">
-        <v>3262.3686334746167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8407,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="C276" s="73">
-        <v>2710.3071945621805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8418,7 +8418,7 @@
         <v>3</v>
       </c>
       <c r="C277" s="73">
-        <v>4366.4915112994877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8429,7 +8429,7 @@
         <v>4</v>
       </c>
       <c r="C278" s="73">
-        <v>4918.5529502119243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="C279" s="73">
-        <v>23136.58043432231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8451,7 +8451,7 @@
         <v>6</v>
       </c>
       <c r="C280" s="73">
-        <v>9887.1059004238468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8462,7 +8462,7 @@
         <v>7</v>
       </c>
       <c r="C281" s="73">
-        <v>4587.3160868644627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8473,7 +8473,7 @@
         <v>8</v>
       </c>
       <c r="C282" s="73">
-        <v>3924.8423601695399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8484,7 +8484,7 @@
         <v>9</v>
       </c>
       <c r="C283" s="73">
-        <v>3262.3686334746167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8495,7 +8495,7 @@
         <v>10</v>
       </c>
       <c r="C284" s="73">
-        <v>5249.789813559385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8506,7 +8506,7 @@
         <v>11</v>
       </c>
       <c r="C285" s="73">
-        <v>9887.1059004238468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8517,7 +8517,7 @@
         <v>12</v>
       </c>
       <c r="C286" s="73">
-        <v>4587.3160868644627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8528,7 +8528,7 @@
         <v>13</v>
       </c>
       <c r="C287" s="73">
-        <v>3924.8423601695399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="C288" s="73">
-        <v>3262.3686334746167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8550,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="C289" s="73">
-        <v>5249.789813559385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8561,7 +8561,7 @@
         <v>3</v>
       </c>
       <c r="C290" s="73">
-        <v>5912.2635402543092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8572,7 +8572,7 @@
         <v>4</v>
       </c>
       <c r="C291" s="73">
-        <v>27773.896521186773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8583,7 +8583,7 @@
         <v>5</v>
       </c>
       <c r="C292" s="73">
-        <v>11874.527080508617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8594,7 +8594,7 @@
         <v>6</v>
       </c>
       <c r="C293" s="73">
-        <v>5514.7793042373551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8605,7 +8605,7 @@
         <v>7</v>
       </c>
       <c r="C294" s="73">
-        <v>4719.8108322034477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8616,7 +8616,7 @@
         <v>8</v>
       </c>
       <c r="C295" s="73">
-        <v>3924.8423601695399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8627,7 +8627,7 @@
         <v>9</v>
       </c>
       <c r="C296" s="73">
-        <v>6309.7477762712615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8638,7 +8638,7 @@
         <v>10</v>
       </c>
       <c r="C297" s="73">
-        <v>11874.527080508617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8649,7 +8649,7 @@
         <v>11</v>
       </c>
       <c r="C298" s="73">
-        <v>5514.7793042373551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8660,7 +8660,7 @@
         <v>12</v>
       </c>
       <c r="C299" s="73">
-        <v>4719.8108322034477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8671,7 +8671,7 @@
         <v>13</v>
       </c>
       <c r="C300" s="73">
-        <v>3924.8423601695399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8682,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="C301" s="73">
-        <v>6309.7477762712615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>2</v>
       </c>
       <c r="C302" s="73">
-        <v>7104.7162483051707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8704,7 +8704,7 @@
         <v>3</v>
       </c>
       <c r="C303" s="73">
-        <v>33338.675825424129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8715,7 +8715,7 @@
         <v>4</v>
       </c>
       <c r="C304" s="73">
-        <v>14259.43249661034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8726,7 +8726,7 @@
         <v>5</v>
       </c>
       <c r="C305" s="73">
-        <v>6627.7351650848259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8737,7 +8737,7 @@
         <v>6</v>
       </c>
       <c r="C306" s="73">
-        <v>5673.7729986441373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8748,7 +8748,7 @@
         <v>7</v>
       </c>
       <c r="C307" s="73">
-        <v>4719.8108322034477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8759,7 +8759,7 @@
         <v>8</v>
       </c>
       <c r="C308" s="73">
-        <v>7581.6973315255136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>9</v>
       </c>
       <c r="C309" s="73">
-        <v>14259.43249661034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8781,7 +8781,7 @@
         <v>10</v>
       </c>
       <c r="C310" s="73">
-        <v>6627.7351650848259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8792,7 +8792,7 @@
         <v>11</v>
       </c>
       <c r="C311" s="73">
-        <v>5673.7729986441373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8803,7 +8803,7 @@
         <v>12</v>
       </c>
       <c r="C312" s="73">
-        <v>4719.8108322034477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8814,7 +8814,7 @@
         <v>13</v>
       </c>
       <c r="C313" s="73">
-        <v>7581.6973315255136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
